--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H2">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J2">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.04018033333333334</v>
+        <v>0.001088</v>
       </c>
       <c r="N2">
-        <v>0.120541</v>
+        <v>0.003264</v>
       </c>
       <c r="O2">
-        <v>0.3617926807672799</v>
+        <v>0.02170357071613805</v>
       </c>
       <c r="P2">
-        <v>0.3617926807672799</v>
+        <v>0.02170357071613804</v>
       </c>
       <c r="Q2">
-        <v>0.0004366128954444445</v>
+        <v>2.5628928E-05</v>
       </c>
       <c r="R2">
-        <v>0.003929516059</v>
+        <v>0.000230660352</v>
       </c>
       <c r="S2">
-        <v>0.01193260521426496</v>
+        <v>0.00175553121601166</v>
       </c>
       <c r="T2">
-        <v>0.01193260521426496</v>
+        <v>0.00175553121601166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01086633333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H3">
-        <v>0.032599</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I3">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J3">
-        <v>0.03298188672296692</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,33 +614,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.07087866666666666</v>
+        <v>0.04018033333333333</v>
       </c>
       <c r="N3">
-        <v>0.212636</v>
+        <v>0.120541</v>
       </c>
       <c r="O3">
-        <v>0.6382073192327201</v>
+        <v>0.801522707626837</v>
       </c>
       <c r="P3">
-        <v>0.6382073192327201</v>
+        <v>0.8015227076268369</v>
       </c>
       <c r="Q3">
-        <v>0.0007701912182222221</v>
+        <v>0.0009464879319999998</v>
       </c>
       <c r="R3">
-        <v>0.006931720964</v>
+        <v>0.008518391387999999</v>
       </c>
       <c r="S3">
-        <v>0.02104928150870197</v>
+        <v>0.06483256382023943</v>
       </c>
       <c r="T3">
-        <v>0.02104928150870197</v>
+        <v>0.06483256382023944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2501433333333333</v>
+        <v>0.023556</v>
       </c>
       <c r="H4">
-        <v>0.7504299999999999</v>
+        <v>0.07066799999999999</v>
       </c>
       <c r="I4">
-        <v>0.7592440643429574</v>
+        <v>0.08088674619362546</v>
       </c>
       <c r="J4">
-        <v>0.7592440643429573</v>
+        <v>0.08088674619362549</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.04018033333333334</v>
+        <v>0.008861666666666667</v>
       </c>
       <c r="N4">
-        <v>0.120541</v>
+        <v>0.026585</v>
       </c>
       <c r="O4">
-        <v>0.3617926807672799</v>
+        <v>0.1767737216570251</v>
       </c>
       <c r="P4">
-        <v>0.3617926807672799</v>
+        <v>0.1767737216570251</v>
       </c>
       <c r="Q4">
-        <v>0.01005084251444445</v>
+        <v>0.00020874542</v>
       </c>
       <c r="R4">
-        <v>0.09045758263000001</v>
+        <v>0.00187870878</v>
       </c>
       <c r="S4">
-        <v>0.2746889453952838</v>
+        <v>0.01429865115737438</v>
       </c>
       <c r="T4">
-        <v>0.2746889453952837</v>
+        <v>0.01429865115737438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,10 +726,10 @@
         <v>0.7504299999999999</v>
       </c>
       <c r="I5">
-        <v>0.7592440643429574</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J5">
-        <v>0.7592440643429573</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07087866666666666</v>
+        <v>0.001088</v>
       </c>
       <c r="N5">
-        <v>0.212636</v>
+        <v>0.003264</v>
       </c>
       <c r="O5">
-        <v>0.6382073192327201</v>
+        <v>0.02170357071613805</v>
       </c>
       <c r="P5">
-        <v>0.6382073192327201</v>
+        <v>0.02170357071613804</v>
       </c>
       <c r="Q5">
-        <v>0.01772982594222222</v>
+        <v>0.0002721559466666667</v>
       </c>
       <c r="R5">
-        <v>0.15956843348</v>
+        <v>0.00244940352</v>
       </c>
       <c r="S5">
-        <v>0.4845551189476737</v>
+        <v>0.01864214765426544</v>
       </c>
       <c r="T5">
-        <v>0.4845551189476737</v>
+        <v>0.01864214765426544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.068454</v>
+        <v>0.2501433333333333</v>
       </c>
       <c r="H6">
-        <v>0.205362</v>
+        <v>0.7504299999999999</v>
       </c>
       <c r="I6">
-        <v>0.2077740489340757</v>
+        <v>0.8589438069010353</v>
       </c>
       <c r="J6">
-        <v>0.2077740489340757</v>
+        <v>0.8589438069010354</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04018033333333334</v>
+        <v>0.04018033333333333</v>
       </c>
       <c r="N6">
         <v>0.120541</v>
       </c>
       <c r="O6">
-        <v>0.3617926807672799</v>
+        <v>0.801522707626837</v>
       </c>
       <c r="P6">
-        <v>0.3617926807672799</v>
+        <v>0.8015227076268369</v>
       </c>
       <c r="Q6">
-        <v>0.002750504538</v>
+        <v>0.01005084251444444</v>
       </c>
       <c r="R6">
-        <v>0.024754540842</v>
+        <v>0.09045758262999999</v>
       </c>
       <c r="S6">
-        <v>0.07517113015773125</v>
+        <v>0.6884629658066208</v>
       </c>
       <c r="T6">
-        <v>0.07517113015773123</v>
+        <v>0.6884629658066208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2501433333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.7504299999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.8589438069010353</v>
+      </c>
+      <c r="J7">
+        <v>0.8589438069010354</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.068454</v>
-      </c>
-      <c r="H7">
-        <v>0.205362</v>
-      </c>
-      <c r="I7">
-        <v>0.2077740489340757</v>
-      </c>
-      <c r="J7">
-        <v>0.2077740489340757</v>
-      </c>
-      <c r="K7">
+      <c r="M7">
+        <v>0.008861666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.026585</v>
+      </c>
+      <c r="O7">
+        <v>0.1767737216570251</v>
+      </c>
+      <c r="P7">
+        <v>0.1767737216570251</v>
+      </c>
+      <c r="Q7">
+        <v>0.002216686838888889</v>
+      </c>
+      <c r="R7">
+        <v>0.01995018155</v>
+      </c>
+      <c r="S7">
+        <v>0.1518386934401491</v>
+      </c>
+      <c r="T7">
+        <v>0.1518386934401491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01752266666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.052568</v>
+      </c>
+      <c r="I8">
+        <v>0.0601694469053391</v>
+      </c>
+      <c r="J8">
+        <v>0.06016944690533912</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M7">
-        <v>0.07087866666666666</v>
-      </c>
-      <c r="N7">
-        <v>0.212636</v>
-      </c>
-      <c r="O7">
-        <v>0.6382073192327201</v>
-      </c>
-      <c r="P7">
-        <v>0.6382073192327201</v>
-      </c>
-      <c r="Q7">
-        <v>0.004851928247999999</v>
-      </c>
-      <c r="R7">
-        <v>0.04366735423199999</v>
-      </c>
-      <c r="S7">
-        <v>0.1326029187763444</v>
-      </c>
-      <c r="T7">
-        <v>0.1326029187763444</v>
+      <c r="M8">
+        <v>0.001088</v>
+      </c>
+      <c r="N8">
+        <v>0.003264</v>
+      </c>
+      <c r="O8">
+        <v>0.02170357071613805</v>
+      </c>
+      <c r="P8">
+        <v>0.02170357071613804</v>
+      </c>
+      <c r="Q8">
+        <v>1.906466133333334E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.000171581952</v>
+      </c>
+      <c r="S8">
+        <v>0.001305891845860941</v>
+      </c>
+      <c r="T8">
+        <v>0.001305891845860941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01752266666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.052568</v>
+      </c>
+      <c r="I9">
+        <v>0.0601694469053391</v>
+      </c>
+      <c r="J9">
+        <v>0.06016944690533912</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.04018033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.120541</v>
+      </c>
+      <c r="O9">
+        <v>0.801522707626837</v>
+      </c>
+      <c r="P9">
+        <v>0.8015227076268369</v>
+      </c>
+      <c r="Q9">
+        <v>0.0007040665875555555</v>
+      </c>
+      <c r="R9">
+        <v>0.006336599288</v>
+      </c>
+      <c r="S9">
+        <v>0.0482271779999766</v>
+      </c>
+      <c r="T9">
+        <v>0.04822717799997661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01752266666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.052568</v>
+      </c>
+      <c r="I10">
+        <v>0.0601694469053391</v>
+      </c>
+      <c r="J10">
+        <v>0.06016944690533912</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.008861666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.026585</v>
+      </c>
+      <c r="O10">
+        <v>0.1767737216570251</v>
+      </c>
+      <c r="P10">
+        <v>0.1767737216570251</v>
+      </c>
+      <c r="Q10">
+        <v>0.0001552800311111111</v>
+      </c>
+      <c r="R10">
+        <v>0.00139752028</v>
+      </c>
+      <c r="S10">
+        <v>0.01063637705950156</v>
+      </c>
+      <c r="T10">
+        <v>0.01063637705950157</v>
       </c>
     </row>
   </sheetData>
